--- a/df_1/df_1_2.xlsx
+++ b/df_1/df_1_2.xlsx
@@ -662,382 +662,382 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6066 %</t>
+          <t>0,6066</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3319 %</t>
+          <t>0,3319</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.1905 %</t>
+          <t>0,1905</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.1942 %</t>
+          <t>0,1942</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.2592 %</t>
+          <t>0,2592</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1426 %</t>
+          <t>0,1426</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.537 %</t>
+          <t>0,537</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.1376 %</t>
+          <t>0,1376</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.1677 %</t>
+          <t>0,1677</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.22 %</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.3978 %</t>
+          <t>0,3978</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.2937 %</t>
+          <t>0,2937</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.2789 %</t>
+          <t>0,2789</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.2505 %</t>
+          <t>0,2505</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.4783 %</t>
+          <t>0,4783</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.3274 %</t>
+          <t>0,3274</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.5717 %</t>
+          <t>0,5717</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.2259 %</t>
+          <t>0,2259</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.3801 %</t>
+          <t>0,3801</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.2768 %</t>
+          <t>0,2768</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.3617 %</t>
+          <t>0,3617</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.3951 %</t>
+          <t>0,3951</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.9955 %</t>
+          <t>0,9955</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4138 %</t>
+          <t>0,4138</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.4842 %</t>
+          <t>0,4842</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.2684 %</t>
+          <t>0,2684</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.9631 %</t>
+          <t>0,9631</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.4394 %</t>
+          <t>0,4394</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5329 %</t>
+          <t>0,5329</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.7048 %</t>
+          <t>0,7048</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.8707 %</t>
+          <t>0,8707</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.3841 %</t>
+          <t>0,3841</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6996 %</t>
+          <t>0,6996</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.4346 %</t>
+          <t>0,4346</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.0386 %</t>
+          <t>1,0386</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.2607 %</t>
+          <t>0,2607</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.4992 %</t>
+          <t>0,4992</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.4654 %</t>
+          <t>0,4654</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.9927 %</t>
+          <t>0,9927</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.8959 %</t>
+          <t>0,8959</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4018 %</t>
+          <t>0,4018</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.5139 %</t>
+          <t>0,5139</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5644 %</t>
+          <t>0,5644</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.4145 %</t>
+          <t>0,4145</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.6744 %</t>
+          <t>0,6744</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.5321 %</t>
+          <t>0,5321</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.8657 %</t>
+          <t>0,8657</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.661 %</t>
+          <t>0,661</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.7436 %</t>
+          <t>0,7436</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.4488 %</t>
+          <t>0,4488</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.5302 %</t>
+          <t>0,5302</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.5975 %</t>
+          <t>0,5975</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.6125 %</t>
+          <t>0,6125</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.6043 %</t>
+          <t>0,6043</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.2028 %</t>
+          <t>0,2028</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.3087 %</t>
+          <t>0,3087</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.9288 %</t>
+          <t>0,9288</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.5622 %</t>
+          <t>0,5622</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.5177 %</t>
+          <t>0,5177</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>1.3746 %</t>
+          <t>1,3746</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.7018 %</t>
+          <t>0,7018</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.3995 %</t>
+          <t>0,3995</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.4679 %</t>
+          <t>0,4679</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4784 %</t>
+          <t>0,4784</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.6759 %</t>
+          <t>0,6759</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.8562 %</t>
+          <t>0,8562</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.4642 %</t>
+          <t>0,4642</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.5066 %</t>
+          <t>0,5066</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.3816 %</t>
+          <t>0,3816</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.5048 %</t>
+          <t>0,5048</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.408 %</t>
+          <t>0,408</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.7791 %</t>
+          <t>0,7791</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.4068 %</t>
+          <t>0,4068</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.5099 %</t>
+          <t>0,5099</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.5832 %</t>
+          <t>0,5832</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.6606 %</t>
+          <t>0,6606</t>
         </is>
       </c>
     </row>
@@ -1049,212 +1049,212 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.7664 %</t>
+          <t>0,7664</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.4293 %</t>
+          <t>0,4293</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.142 %</t>
+          <t>0,142</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.2173 %</t>
+          <t>0,2173</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.1317 %</t>
+          <t>0,1317</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1326 %</t>
+          <t>0,1326</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.2212 %</t>
+          <t>0,2212</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3206 %</t>
+          <t>0,3206</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3337 %</t>
+          <t>0,3337</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.1585 %</t>
+          <t>0,1585</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.2317 %</t>
+          <t>0,2317</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4159 %</t>
+          <t>0,4159</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.377 %</t>
+          <t>0,377</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4819 %</t>
+          <t>0,4819</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.303 %</t>
+          <t>0,303</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2869 %</t>
+          <t>0,2869</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.463 %</t>
+          <t>0,463</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.2768 %</t>
+          <t>0,2768</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.2612 %</t>
+          <t>0,2612</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.945 %</t>
+          <t>0,945</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.3831 %</t>
+          <t>0,3831</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.5621 %</t>
+          <t>0,5621</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.8273 %</t>
+          <t>0,8273</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.3711 %</t>
+          <t>0,3711</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.7252 %</t>
+          <t>0,7252</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.4078 %</t>
+          <t>0,4078</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.6095 %</t>
+          <t>0,6095</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.8043 %</t>
+          <t>0,8043</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.6889 %</t>
+          <t>0,6889</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.7603 %</t>
+          <t>0,7603</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.7355 %</t>
+          <t>0,7355</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.7979 %</t>
+          <t>0,7979</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.7442 %</t>
+          <t>0,7442</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.0074 %</t>
+          <t>1,0074</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.8677 %</t>
+          <t>0,8677</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5241 %</t>
+          <t>0,5241</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.6747 %</t>
+          <t>0,6747</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.7679 %</t>
+          <t>0,7679</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.6802 %</t>
+          <t>0,6802</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.761 %</t>
+          <t>0,761</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.9479 %</t>
+          <t>0,9479</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.629 %</t>
+          <t>0,629</t>
         </is>
       </c>
     </row>
@@ -1266,222 +1266,222 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.258 %</t>
+          <t>0,258</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.3532 %</t>
+          <t>0,3532</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.1496 %</t>
+          <t>0,1496</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.137 %</t>
+          <t>0,137</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1237 %</t>
+          <t>0,1237</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0892 %</t>
+          <t>0,0892</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0806 %</t>
+          <t>0,0806</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0704 %</t>
+          <t>0,0704</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0813 %</t>
+          <t>0,0813</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0871 %</t>
+          <t>0,0871</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.1107 %</t>
+          <t>0,1107</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.133 %</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.1355 %</t>
+          <t>0,1355</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.1059 %</t>
+          <t>0,1059</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.1721 %</t>
+          <t>0,1721</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3016 %</t>
+          <t>0,3016</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.4219 %</t>
+          <t>0,4219</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.4398 %</t>
+          <t>0,4398</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.5227 %</t>
+          <t>0,5227</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.4372 %</t>
+          <t>0,4372</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.2802 %</t>
+          <t>0,2802</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.2934 %</t>
+          <t>0,2934</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4006 %</t>
+          <t>0,4006</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.593 %</t>
+          <t>0,593</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.7483 %</t>
+          <t>0,7483</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.8569 %</t>
+          <t>0,8569</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.94 %</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>1.1477 %</t>
+          <t>1,1477</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1.1242 %</t>
+          <t>1,1242</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.9101 %</t>
+          <t>0,9101</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.8322 %</t>
+          <t>0,8322</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.0385 %</t>
+          <t>1,0385</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.7344 %</t>
+          <t>0,7344</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.7573 %</t>
+          <t>0,7573</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.7582 %</t>
+          <t>0,7582</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1.0456 %</t>
+          <t>1,0456</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.9996 %</t>
+          <t>0,9996</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.7484 %</t>
+          <t>0,7484</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.6303 %</t>
+          <t>0,6303</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.5076 %</t>
+          <t>0,5076</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1.0139 %</t>
+          <t>1,0139</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.7165 %</t>
+          <t>0,7165</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1.0672 %</t>
+          <t>1,0672</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1.4586 %</t>
+          <t>1,4586</t>
         </is>
       </c>
     </row>
